--- a/output/data/female_ene_99-23.xlsx
+++ b/output/data/female_ene_99-23.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C477"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CAENES_1d</t>
+          <t>ID2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -377,11 +377,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2">
-        <v>655279.228092021</v>
+        <v>558717.9045708787</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -392,11 +392,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3">
-        <v>91356.58653191003</v>
+        <v>180250.4432833862</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -407,11 +407,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4">
-        <v>717361.1226764661</v>
+        <v>53871.00322068064</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -422,7 +422,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5">
@@ -437,7 +437,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6">
@@ -452,11 +452,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B7">
-        <v>1084267.035271497</v>
+        <v>131593.5333334028</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -467,11 +467,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B8">
-        <v>575101.1686899731</v>
+        <v>952673.5019380936</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -482,11 +482,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B9">
-        <v>257927.8474400344</v>
+        <v>376617.1920480764</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -497,11 +497,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B10">
-        <v>111622.8780721098</v>
+        <v>66871.72099349748</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -512,11 +512,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B11">
-        <v>766041.7270746498</v>
+        <v>42307.28342267959</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -527,11 +527,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12">
-        <v>27649.43978795628</v>
+        <v>60153.21903111339</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B13">
-        <v>295976.3067712261</v>
+        <v>215620.5640173548</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -557,11 +557,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B14">
-        <v>138477.3994931575</v>
+        <v>24685.91337484955</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -572,11 +572,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B15">
-        <v>722868.3415958595</v>
+        <v>64209.65277889484</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -587,11 +587,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B16">
-        <v>2574.58448395478</v>
+        <v>42716.68949465481</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B17">
-        <v>6096168.954503179</v>
+        <v>111622.8780721098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -617,3118 +617,6898 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18">
-        <v>629982.1194488708</v>
+        <v>41530.34599404487</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B19">
-        <v>101343.5099424662</v>
+        <v>724511.381080605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B20">
-        <v>715893.6404185967</v>
+        <v>27649.43978795628</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B21">
-        <v>54608.23290778473</v>
+        <v>295976.3067712261</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B22">
-        <v>604212.5971102751</v>
+        <v>108336.6248580009</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B23">
-        <v>1071654.213667749</v>
+        <v>36408.10449002892</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B24">
-        <v>571425.5193615217</v>
+        <v>30140.77463515658</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B25">
-        <v>281585.6897512877</v>
+        <v>79023.46784889806</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B26">
-        <v>115235.0122054687</v>
+        <v>91689.69360888917</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B27">
-        <v>869873.7964044551</v>
+        <v>552155.1801380722</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B28">
-        <v>41635.4328930312</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B29">
-        <v>301693.0884603203</v>
+        <v>91356.58653191003</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B30">
-        <v>137215.8953881836</v>
+        <v>213089.6106110816</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B31">
-        <v>767966.6091438441</v>
+        <v>48237.89015555985</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B32">
-        <v>2121.714470077975</v>
+        <v>83763.25904108831</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B33">
-        <v>6266447.071573933</v>
+        <v>81400.32095331598</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B34">
-        <v>628578.5682660176</v>
+        <v>56748.59541135361</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B35">
-        <v>105463.107269501</v>
+        <v>6096168.954503179</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B36">
-        <v>746259.5442245309</v>
+        <v>525244.3516725927</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B37">
-        <v>61916.48486651449</v>
+        <v>179792.6352553128</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B38">
-        <v>659412.0932239653</v>
+        <v>55549.90536935566</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B39">
-        <v>1057068.923074063</v>
+        <v>54608.23290778473</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B40">
-        <v>617013.469760314</v>
+        <v>604212.5971102751</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B41">
-        <v>295291.7412061068</v>
+        <v>132111.6333367605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B42">
-        <v>132700.1662231013</v>
+        <v>939542.5803309886</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B43">
-        <v>804077.0608966619</v>
+        <v>357936.1270021047</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B44">
-        <v>37474.72215132312</v>
+        <v>77766.6185927788</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B45">
-        <v>338778.7136666178</v>
+        <v>47615.8674022609</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B46">
-        <v>153649.4449309464</v>
+        <v>62589.41703355625</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B47">
-        <v>729429.3514179224</v>
+        <v>233969.8223490268</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B48">
-        <v>1916.540108464908</v>
+        <v>27933.91509059124</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B49">
-        <v>6369029.931286051</v>
+        <v>59953.89725882062</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B50">
-        <v>568639.5229830323</v>
+        <v>47834.96141722637</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B51">
-        <v>91799.30726345834</v>
+        <v>115235.0122054687</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B52">
-        <v>759566.8237816942</v>
+        <v>36937.37860884018</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B53">
-        <v>50085.69150931443</v>
+        <v>832936.4177956149</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B54">
-        <v>690665.904212588</v>
+        <v>41635.4328930312</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B55">
-        <v>1110883.729714269</v>
+        <v>301693.0884603203</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B56">
-        <v>647388.5758849286</v>
+        <v>111550.6408105734</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B57">
-        <v>296460.5822096383</v>
+        <v>42148.35074272179</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B58">
-        <v>144702.7274827183</v>
+        <v>25665.25457761025</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B59">
-        <v>843398.7813286904</v>
+        <v>71895.51595208432</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B60">
-        <v>40150.93950352917</v>
+        <v>94614.19841544059</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B61">
-        <v>369504.3739677266</v>
+        <v>601456.8947763192</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B62">
-        <v>160211.3736351978</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B63">
-        <v>740682.9000341403</v>
+        <v>101343.5099424662</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B64">
-        <v>3276.909896187492</v>
+        <v>205673.9647841896</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B65">
-        <v>6517418.143407113</v>
+        <v>58131.63930189571</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B66">
-        <v>590808.134700754</v>
+        <v>85312.57124651807</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B67">
-        <v>92056.098743557</v>
+        <v>69770.34919846381</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B68">
-        <v>749731.5757709079</v>
+        <v>61662.575262861</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B69">
-        <v>58332.82011881885</v>
+        <v>6266447.071573933</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B70">
-        <v>697755.7087505066</v>
+        <v>522633.700684369</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B71">
-        <v>1145636.505152162</v>
+        <v>198684.8069728915</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B72">
-        <v>638976.5743753902</v>
+        <v>56853.72674911882</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B73">
-        <v>313095.4306440739</v>
+        <v>61916.48486651449</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B74">
-        <v>148834.4894106076</v>
+        <v>659412.0932239653</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B75">
-        <v>834621.3420931923</v>
+        <v>138722.7258519897</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B76">
-        <v>27945.76391964668</v>
+        <v>918346.1972220731</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B77">
-        <v>381455.2566421496</v>
+        <v>404784.8484070434</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B78">
-        <v>175240.6335618533</v>
+        <v>77587.57771345916</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B79">
-        <v>731477.9944147074</v>
+        <v>52518.36487180789</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B80">
-        <v>1034.092456731289</v>
+        <v>59949.91963264414</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B81">
-        <v>6587002.420755059</v>
+        <v>242773.3763342989</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B82">
-        <v>628083.0975815243</v>
+        <v>33316.94410390183</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B83">
-        <v>91309.2102555016</v>
+        <v>58127.80927477277</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B84">
-        <v>826194.37881258</v>
+        <v>43196.29026113687</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B85">
-        <v>68679.7031644385</v>
+        <v>132700.1662231013</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B86">
-        <v>764435.5733416922</v>
+        <v>32098.18893945856</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B87">
-        <v>1410817.439473021</v>
+        <v>771978.8719572034</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B88">
-        <v>633843.310030214</v>
+        <v>37474.72215132312</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B89">
-        <v>365891.5451554383</v>
+        <v>338778.7136666178</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B90">
-        <v>151271.0917846775</v>
+        <v>129237.3974511936</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B91">
-        <v>826147.2904235345</v>
+        <v>45994.94794900449</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B92">
-        <v>26425.84435513741</v>
+        <v>24412.04747975273</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B93">
-        <v>394343.4810672071</v>
+        <v>77997.04703493747</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B94">
-        <v>213097.5981257629</v>
+        <v>85162.6169428812</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B95">
-        <v>668564.3980730547</v>
+        <v>566269.6874401039</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B96">
-        <v>2422.251365622006</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B97">
-        <v>7071526.213009406</v>
+        <v>105463.107269501</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B98">
-        <v>659196.8029674004</v>
+        <v>222078.6052197322</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B99">
-        <v>87837.59053389099</v>
+        <v>53570.62097004901</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B100">
-        <v>803704.7444035765</v>
+        <v>74021.60757997114</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B101">
-        <v>75132.9041007216</v>
+        <v>75723.3236724499</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B102">
-        <v>702629.9839263401</v>
+        <v>65326.8530603183</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B103">
-        <v>1457000.080695258</v>
+        <v>6369029.931286051</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B104">
-        <v>640197.2530729155</v>
+        <v>472749.0994915814</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B105">
-        <v>359172.430484837</v>
+        <v>192356.0466724882</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B106">
-        <v>137258.9869761654</v>
+        <v>51718.48718098594</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B107">
-        <v>871935.8562411043</v>
+        <v>50085.69150931443</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B108">
-        <v>32590.95691039693</v>
+        <v>690665.904212588</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B109">
-        <v>400087.2971637828</v>
+        <v>148045.4327580583</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B110">
-        <v>215178.8104324876</v>
+        <v>962838.2969562102</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B111">
-        <v>690995.569793692</v>
+        <v>407178.6937900556</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B112">
-        <v>1083.007952034158</v>
+        <v>76587.01051358649</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B113">
-        <v>7134002.275654603</v>
+        <v>55430.91266599227</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B114">
-        <v>663044.9571612754</v>
+        <v>53133.60513530541</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B115">
-        <v>96748.22836721422</v>
+        <v>241029.669543646</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B116">
-        <v>839309.0123672406</v>
+        <v>46145.48429465401</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B117">
-        <v>68684.90016989813</v>
+        <v>62095.96362682118</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B118">
-        <v>698337.6064379147</v>
+        <v>55381.42365981125</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B119">
-        <v>1428260.335141371</v>
+        <v>144702.7274827183</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B120">
-        <v>688038.5794124834</v>
+        <v>44425.47285891172</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B121">
-        <v>379246.2458920284</v>
+        <v>798973.3084697786</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B122">
-        <v>142719.9832990345</v>
+        <v>40150.93950352917</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B123">
-        <v>861573.5869951283</v>
+        <v>369504.3739677266</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B124">
-        <v>28684.17498998103</v>
+        <v>138003.2811006967</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B125">
-        <v>406633.1129222808</v>
+        <v>42756.81835614548</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B126">
-        <v>229835.7754886912</v>
+        <v>22208.09253450109</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B127">
-        <v>730217.0869155917</v>
+        <v>86710.95296084168</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B128">
-        <v>4369.181973960196</v>
+        <v>89870.29994748092</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B129">
-        <v>7265702.767534094</v>
+        <v>564101.6471258177</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B130">
-        <v>663121.8569514878</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B131">
-        <v>92417.15993391896</v>
+        <v>91799.30726345834</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B132">
-        <v>790461.2391113389</v>
+        <v>265129.496844945</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B133">
-        <v>71573.73613286363</v>
+        <v>49896.73977759824</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B134">
-        <v>757374.406268931</v>
+        <v>78177.87411768295</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B135">
-        <v>1453552.487322328</v>
+        <v>70661.92212914681</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B136">
-        <v>714292.1290717579</v>
+        <v>51626.25705884708</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B137">
-        <v>426870.9281797456</v>
+        <v>6517418.143407113</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B138">
-        <v>139861.1704721237</v>
+        <v>487084.4610902464</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B139">
-        <v>852757.3114812975</v>
+        <v>181142.0704762714</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B140">
-        <v>16634.8457579831</v>
+        <v>62611.24453094738</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B141">
-        <v>420575.0973209862</v>
+        <v>58332.82011881885</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B142">
-        <v>238385.880809229</v>
+        <v>697755.7087505066</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B143">
-        <v>706194.5280358862</v>
+        <v>161914.0390852512</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B144">
-        <v>1110.94803144716</v>
+        <v>983722.4660669108</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B145">
-        <v>7345183.724881325</v>
+        <v>401984.5247709686</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B146">
-        <v>683143.3115761589</v>
+        <v>88879.62278054675</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B147">
-        <v>101273.6180364268</v>
+        <v>44705.5718810431</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B148">
-        <v>783185.2444855975</v>
+        <v>60094.32383412593</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B149">
-        <v>81468.42929684307</v>
+        <v>268389.8587630308</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B150">
-        <v>827684.8110586302</v>
+        <v>32854.97364640915</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B151">
-        <v>1515737.223343631</v>
+        <v>58750.56023653638</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B152">
-        <v>681587.3607491757</v>
+        <v>56506.89294092929</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B153">
-        <v>433113.3838018371</v>
+        <v>148834.4894106076</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B154">
-        <v>168106.1100130048</v>
+        <v>43024.3420003354</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B155">
-        <v>810332.2407033488</v>
+        <v>791597.0000928568</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B156">
-        <v>30442.27558818972</v>
+        <v>27945.76391964668</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B157">
-        <v>412655.0185299779</v>
+        <v>381455.2566421496</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B158">
-        <v>271956.3412472144</v>
+        <v>141437.7291282765</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B159">
-        <v>705715.5041364761</v>
+        <v>43629.34977638158</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B160">
-        <v>1002.225371042404</v>
+        <v>33802.90443357683</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B161">
-        <v>7507403.097937554</v>
+        <v>81535.87278341119</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B162">
-        <v>532681.5173538347</v>
+        <v>83946.69275549012</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B163">
-        <v>99585.66316824421</v>
+        <v>565995.428875806</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B164">
-        <v>714785.223805088</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B165">
-        <v>88380.87738266471</v>
+        <v>92056.098743557</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B166">
-        <v>662637.1713246838</v>
+        <v>250048.2105339352</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B167">
-        <v>1392487.82074062</v>
+        <v>52663.73812844205</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B168">
-        <v>616502.6248046618</v>
+        <v>75754.51832790209</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B169">
-        <v>271933.7469341048</v>
+        <v>84574.41794352516</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B170">
-        <v>143549.7395051454</v>
+        <v>42937.37582988467</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B171">
-        <v>798731.1167237274</v>
+        <v>6587002.420755059</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B172">
-        <v>35227.00003061975</v>
+        <v>518241.6145856919</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B173">
-        <v>407256.9308830688</v>
+        <v>193562.0778044006</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B174">
-        <v>240049.233594768</v>
+        <v>71488.8170133291</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B175">
-        <v>552872.6139352981</v>
+        <v>68679.7031644385</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B176">
-        <v>1270.97981565934</v>
+        <v>764435.5733416922</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B177">
-        <v>6557952.260002188</v>
+        <v>163557.0306517041</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B178">
-        <v>514085.6973110176</v>
+        <v>1247260.408821316</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B179">
-        <v>115966.7424151174</v>
+        <v>419522.2054701181</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B180">
-        <v>782558.3933662387</v>
+        <v>93349.65525905218</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B181">
-        <v>92770.76153245414</v>
+        <v>49823.85851163609</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B182">
-        <v>808147.6273758814</v>
+        <v>60831.06915003226</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B183">
-        <v>1510438.036725536</v>
+        <v>316067.6866438022</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B184">
-        <v>667524.2907989223</v>
+        <v>25906.73299155701</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B185">
-        <v>362695.9863046951</v>
+        <v>45121.92094419232</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B186">
-        <v>138202.6428409028</v>
+        <v>49942.79536529444</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B187">
-        <v>862836.7365757892</v>
+        <v>151271.0917846775</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B188">
-        <v>26567.23445833972</v>
+        <v>55356.50355677226</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B189">
-        <v>387949.3578598528</v>
+        <v>770790.7868667622</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B190">
-        <v>278870.4450743231</v>
+        <v>26425.84435513741</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B191">
-        <v>637981.8722603534</v>
+        <v>394343.4810672071</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B192">
-        <v>1168.289236989289</v>
+        <v>152250.7975550513</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B193">
-        <v>7187764.114136413</v>
+        <v>49010.41384580009</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B194">
-        <v>547389.1880551041</v>
+        <v>60846.80057071164</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B195">
-        <v>124702.3468293227</v>
+        <v>68146.25549253156</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B196">
-        <v>796053.3040576479</v>
+        <v>113488.7603715917</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B197">
-        <v>86419.75748156516</v>
+        <v>486929.3822089314</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B198">
-        <v>758956.2921437101</v>
+        <v>2422.251365622006</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B199">
-        <v>1531947.380521585</v>
+        <v>91309.2102555016</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B200">
-        <v>723521.7449023054</v>
+        <v>273259.1748442887</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B201">
-        <v>410359.5635882852</v>
+        <v>92239.12388101009</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B202">
-        <v>150875.1619616896</v>
+        <v>70637.72890887965</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B203">
-        <v>935529.7654964778</v>
+        <v>71959.32976765028</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B204">
-        <v>30270.8764931301</v>
+        <v>53048.12659302158</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B205">
-        <v>403173.3065317519</v>
+        <v>7071526.213009406</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B206">
-        <v>284881.7125854635</v>
+        <v>564602.3460929597</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B207">
-        <v>687063.003494472</v>
+        <v>174687.6570953903</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B208">
-        <v>850.7657845405047</v>
+        <v>72463.18793455481</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B209">
-        <v>7471994.16992705</v>
+        <v>75132.9041007216</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B210">
-        <v>473874.3190862231</v>
+        <v>702629.9839263401</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B211">
-        <v>121151.5809336106</v>
+        <v>173432.0044083695</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B212">
-        <v>837607.2003431214</v>
+        <v>1283568.076286888</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B213">
-        <v>102214.9309482258</v>
+        <v>424073.5227939708</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B214">
-        <v>713187.4385852282</v>
+        <v>94889.44520643557</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B215">
-        <v>1568465.141392725</v>
+        <v>50721.79504885169</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>HJ</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B216">
-        <v>696466.4822262905</v>
+        <v>43349.60683016943</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B217">
-        <v>405781.5560634937</v>
+        <v>308450.6354359853</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B218">
-        <v>166731.3484878262</v>
+        <v>24125.5466566691</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>LMN</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B219">
-        <v>954861.2130317288</v>
+        <v>47323.86265449746</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B220">
-        <v>32997.77250120234</v>
+        <v>49784.87576134257</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B221">
-        <v>423328.5909866791</v>
+        <v>137258.9869761654</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B222">
-        <v>295833.2651664934</v>
+        <v>55407.31797346769</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B223">
-        <v>686518.8602952898</v>
+        <v>816528.5382676366</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B224">
-        <v>2175.519253633799</v>
+        <v>32590.95691039693</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>400087.2971637828</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>148849.0561569744</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>51244.85004427117</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>66329.75427551314</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>85675.42145630617</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>122895.7847402411</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>482424.3635971447</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>1083.007952034158</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>87837.59053389099</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>263318.5915425943</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>89638.89301795687</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>78802.01131023701</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>73457.42208266887</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>51336.98142017439</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B225">
+      <c r="B239">
+        <v>7134002.275654603</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>555139.3375429775</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>181247.056160305</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>88337.05443674733</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>68684.90016989813</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>698337.6064379147</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>177406.3202995045</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>1250854.014841866</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>448229.6885772254</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>100173.4670590083</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>43553.10387429767</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>50450.76579519491</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>335693.1420177307</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>28099.27904924101</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>44243.68982660547</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>67292.45490040317</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>142719.9832990345</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>72214.65394483632</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>789358.9330502921</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>28684.17498998103</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>406633.1129222808</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>169601.1153954824</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>57454.85382310304</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>60234.66009320886</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>96069.47236729937</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>144561.5635552903</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>489586.0509930021</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>4369.181973960196</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>96748.22836721422</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>273517.822431727</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>88220.44218373402</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>70863.36858959887</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>61598.62622824767</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>75524.64233688069</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>7265702.767534094</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>546195.3373287305</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>168192.1394754497</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>57629.73464014933</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>71573.73613286363</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>757374.406268931</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>172008.5087577625</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>1281543.978564566</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>455468.5840419261</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>109977.4976232344</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>59125.00124626212</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>57132.70950883261</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>367745.9269334835</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>36319.12489311855</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>47133.01317885661</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>65393.90933462216</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>139861.1704721237</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>63598.00234876015</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>789159.3091325373</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>16634.8457579831</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>420575.0973209862</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>172188.4304315273</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>59793.81011392474</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>66197.45037770165</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>98628.52673832583</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>131720.7928364059</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>475845.2084611545</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>1110.94803144716</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>92417.15993391896</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>280820.4307297024</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>74418.61624448968</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>68284.05534794962</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>71358.53280275407</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>69757.72987084417</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>7345183.724881325</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>575904.475921332</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>166726.6184646458</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>60029.84768593955</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>81468.42929684307</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>827684.8110586302</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>157266.6021424257</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>1358470.621201206</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>449200.9790116397</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>107753.7368142816</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>54342.4092887984</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>55848.91210359113</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>378770.9745130387</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>28766.80101982091</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>45526.71614442611</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>50339.12775900736</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>168106.1100130048</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>60971.7977164492</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>749360.4429868996</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B326">
+        <v>30442.27558818972</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B327">
+        <v>412655.0185299779</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B328">
+        <v>187818.015586221</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B329">
+        <v>51389.92355123566</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B330">
+        <v>84138.32566099342</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B331">
+        <v>91284.91497531516</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B332">
+        <v>130321.3625166512</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B333">
+        <v>484109.2266445097</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B334">
+        <v>1002.225371042404</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B335">
+        <v>101273.6180364268</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B336">
+        <v>279561.8221322277</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B337">
+        <v>86187.73990855551</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B338">
+        <v>68456.57003860456</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B339">
+        <v>79994.08085202212</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B340">
+        <v>42228.56540360238</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B341">
+        <v>7507403.097937555</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B342">
+        <v>446588.4083977909</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B343">
+        <v>159172.9210882438</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B344">
+        <v>47323.58168491065</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B345">
+        <v>88380.87738266471</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B346">
+        <v>662637.1713246838</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B347">
+        <v>147262.9075594484</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B348">
+        <v>1245224.913181172</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B349">
+        <v>350341.7370136076</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B350">
+        <v>110899.9395784055</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B351">
+        <v>23061.74012866011</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B352">
+        <v>44328.5906647645</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B353">
+        <v>248872.0068054447</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B354">
+        <v>31653.6690954046</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B355">
+        <v>67619.85157895841</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B356">
+        <v>55987.42753828573</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B357">
+        <v>143549.7395051454</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B358">
+        <v>67195.13612129266</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B359">
+        <v>731535.9806024348</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B360">
+        <v>35227.00003061975</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>407256.9308830688</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>181972.5653927629</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>41764.51829127936</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B364">
+        <v>58076.66820200502</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B365">
+        <v>52418.7927401648</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B366">
+        <v>126811.789815496</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B367">
+        <v>373642.0313796373</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B368">
+        <v>1270.97981565934</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B369">
+        <v>99585.66316824421</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B370">
+        <v>253339.9599286914</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B371">
+        <v>62441.92969359124</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B372">
+        <v>62924.90387274311</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B373">
+        <v>85710.21236196572</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B374">
+        <v>43871.71517494212</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B375">
+        <v>6557952.260002188</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B376">
+        <v>426833.9755822113</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B377">
+        <v>181431.2154561061</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B378">
+        <v>64576.94674826451</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B379">
+        <v>92770.76153245414</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B380">
+        <v>808147.6273758814</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B381">
+        <v>172324.0460230254</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B382">
+        <v>1338113.990702511</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B383">
+        <v>367340.689126547</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B384">
+        <v>119450.803544182</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B385">
+        <v>38827.85944724109</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B386">
+        <v>43422.14011545757</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B387">
+        <v>323868.126857454</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B388">
+        <v>26793.11948516414</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B389">
+        <v>63232.44395218339</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B390">
+        <v>90707.23469084586</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B391">
+        <v>138202.6428409028</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B392">
+        <v>65848.46873121617</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B393">
+        <v>796988.267844573</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B394">
+        <v>26567.23445833972</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B395">
+        <v>387949.3578598528</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B396">
+        <v>214524.7530349764</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B397">
+        <v>43829.58161334871</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B398">
+        <v>64345.69203934674</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B399">
+        <v>68927.23896945137</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B400">
+        <v>127410.9580207452</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B401">
+        <v>441643.6752701568</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B402">
+        <v>1168.289236989289</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>115966.7424151174</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B404">
+        <v>288298.7797856941</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B405">
+        <v>60073.48577797265</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>75116.4680750183</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B407">
+        <v>64187.4427925156</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B408">
+        <v>48874.05473066739</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B409">
+        <v>7187764.114136413</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B410">
+        <v>452296.2820718323</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B411">
+        <v>173339.2001960626</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B412">
+        <v>70709.90643278052</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B413">
+        <v>86419.75748156516</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B414">
+        <v>758956.2921437101</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B415">
+        <v>175738.7337293344</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>1356208.64679225</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B417">
+        <v>413445.8778674271</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B418">
+        <v>131979.0095600146</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B419">
+        <v>43057.13492526623</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B420">
+        <v>47414.89920600749</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>367302.428663019</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B422">
+        <v>27835.63801145656</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B423">
+        <v>71303.62815492853</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B424">
+        <v>78957.59130847866</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B425">
+        <v>150875.1619616896</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B426">
+        <v>84183.16752785201</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B427">
+        <v>851346.5979686258</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B428">
+        <v>30270.8764931301</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B429">
+        <v>403173.3065317519</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B430">
+        <v>219072.704510442</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B431">
+        <v>47678.00677726437</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B432">
+        <v>65809.00807502156</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B433">
+        <v>84251.74483130386</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B434">
+        <v>139909.5539192213</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B435">
+        <v>462901.7047439468</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B436">
+        <v>850.7657845405047</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B437">
+        <v>124702.3468293227</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B438">
+        <v>295417.4891349121</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B439">
+        <v>59219.57311467627</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B440">
+        <v>66281.42627516412</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B441">
+        <v>73526.36000609207</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B442">
+        <v>57559.3488979603</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B443">
+        <v>7471994.16992705</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B444">
+        <v>383492.8737179086</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B445">
+        <v>192034.0049873546</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B446">
+        <v>70455.70780426149</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B447">
+        <v>102214.9309482258</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B448">
+        <v>713187.4385852282</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B449">
+        <v>181224.9407180073</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B450">
+        <v>1387240.200674717</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B451">
+        <v>418126.912768374</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B452">
+        <v>117028.8616554959</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B453">
+        <v>45656.92918635401</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B454">
+        <v>44455.37505444985</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B455">
+        <v>360124.6268771397</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B456">
+        <v>23804.84385435645</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B457">
+        <v>63261.68856268677</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B458">
+        <v>74244.17538537734</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B459">
+        <v>166731.3484878262</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B460">
+        <v>76143.8991500702</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B461">
+        <v>878717.3138816586</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B462">
+        <v>32997.77250120234</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B463">
+        <v>423328.5909866791</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B464">
+        <v>210080.3868354902</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B465">
+        <v>45926.07031386469</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B466">
+        <v>85752.87833100327</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B467">
+        <v>100641.9217865891</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B468">
+        <v>142224.7628196374</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B469">
+        <v>443652.1756890632</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B470">
+        <v>2175.519253633799</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B471">
+        <v>121151.5809336106</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B472">
+        <v>315248.8546417033</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B473">
+        <v>71222.63749416753</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B474">
+        <v>57345.17043109478</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B475">
+        <v>65999.0572171422</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B476">
+        <v>65301.7677673976</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B477">
         <v>7481195.219301771</v>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C477" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
